--- a/data/VideoBaseline.xlsx
+++ b/data/VideoBaseline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16692EE-EE14-4525-B9B8-17310AC8892E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2E0426-5898-4E5E-AB3A-0F5EDFCF28B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="8">
   <si>
     <t>angry</t>
   </si>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2624,16 +2624,800 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>1025</v>
+      </c>
+      <c r="C162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>9.9206349206349201E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>1025</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>1025</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>2.3809523809523801E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>1025</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>1.38888888888888E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>1025</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>0.61904761904761896</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>1025</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>1025</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>1026</v>
+      </c>
+      <c r="C169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>2.3923444976076502E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>1026</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>1026</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>1.43540669856459E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>1026</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>9.5693779904306199E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>1026</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>0.63397129186602796</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>1026</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>1026</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>0.33971291866028702</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>1024</v>
+      </c>
+      <c r="C176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>1024</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>1024</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>2.4154589371980601E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>1024</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>2.4154589371980601E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>1024</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180">
+        <v>4.8309178743961298E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>1024</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>1024</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>0.99033816425120702</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>1027</v>
+      </c>
+      <c r="C183" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>1.8691588785046699E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>1027</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>1027</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>1027</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>0.31028037383177498</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>1027</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>1027</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>1027</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <v>0.68785046728971899</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>1020</v>
+      </c>
+      <c r="C190" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>1020</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>1020</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>1020</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>0.61661341853035101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>1020</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>1020</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>1020</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196">
+        <v>0.38338658146964799</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>1028</v>
+      </c>
+      <c r="C197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>1028</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>1028</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>1028</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>1028</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>1028</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>1028</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>1030</v>
+      </c>
+      <c r="C204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>2.0618556701030898E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>1030</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>1030</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>1030</v>
+      </c>
+      <c r="C207" t="s">
+        <v>3</v>
+      </c>
+      <c r="D207">
+        <v>0.70309278350515403</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>1030</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208">
+        <v>0.138144329896907</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>1030</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>1030</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210">
+        <v>0.15670103092783499</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>1031</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>1.85528756957328E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>1031</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>1031</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>1031</v>
+      </c>
+      <c r="C214" t="s">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>1031</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <v>4.6382189239332003E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>1031</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>1031</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <v>0.951762523191094</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>7</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B218" t="s">
         <v>7</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C218" t="s">
         <v>7</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D218" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/VideoBaseline.xlsx
+++ b/data/VideoBaseline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2E0426-5898-4E5E-AB3A-0F5EDFCF28B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E07A59-9F4F-487D-8DD7-2B558F0B3C8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="8">
   <si>
     <t>angry</t>
   </si>
@@ -79,8 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,3063 +364,3553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>1003</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1003</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1003</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1003</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2.5917926565874699E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1003</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>4.3196544276457799E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1003</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1003</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.96976241900647897</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1001</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>6.2962962962962901E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1001</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1001</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>9.2592592592592501E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1001</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1.85185185185185E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1001</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1.48148148148148E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1001</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1.29629629629629E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1001</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0.89814814814814803</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1004</v>
       </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.13549618320610601</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1004</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>1004</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>1004</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>1004</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0.118320610687022</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>1004</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>1004</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0.74618320610686995</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>1005</v>
       </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
         <v>2.38663484486873E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1005</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1005</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>1005</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.202863961813842</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>1005</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.212410501193317</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>1005</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>1005</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0.58233890214797102</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>1007</v>
       </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
         <v>0.993506493506493</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>1007</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>1007</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>1007</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>1007</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>1007</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>1007</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>6.4935064935064896E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>1999</v>
       </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
         <v>8.9743589743589702E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>1999</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>5.3418803418803402E-4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>1999</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>0.31997863247863201</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>1999</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>9.0811965811965802E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>1999</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>0.28151709401709402</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>1999</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>1.6025641025640999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>1999</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>0.29754273504273498</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>1009</v>
       </c>
-      <c r="C43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
         <v>0.191208791208791</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>1009</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>1009</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>1009</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>1009</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>0.29450549450549401</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>1009</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>1009</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>0.51428571428571401</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>1006</v>
       </c>
-      <c r="C50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
         <v>0.37959183673469299</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>1006</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>1006</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>1006</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>1.0204081632653E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>1006</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>0.132653061224489</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>1006</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>2.0408163265306098E-3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>1006</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>0.47551020408163203</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>1008</v>
       </c>
-      <c r="C57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57">
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
         <v>0.16600790513833899</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>1008</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>1.0540184453227901E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>1008</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>1008</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>4.61133069828722E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>1008</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>0.71146245059288504</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>1008</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>1008</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>6.5876152832674506E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>1011</v>
       </c>
-      <c r="C64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64">
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
         <v>0.25181598062953903</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>1011</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>66</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>1011</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>1011</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>1011</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>0.57869249394673095</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>69</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>1011</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>1011</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>0.169491525423728</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>71</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>1010</v>
       </c>
-      <c r="C71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71">
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
         <v>0.12775330396475701</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>1010</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>2.2026431718061598E-3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>1010</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>6.6079295154184998E-3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>74</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>1010</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>1010</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>0.14096916299559401</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>76</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>1010</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>6.6079295154184998E-3</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>1010</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>0.71585903083700397</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>78</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>1012</v>
       </c>
-      <c r="C78" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
         <v>0.25462962962962898</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>79</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>1012</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>80</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>1012</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>81</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>1012</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>3.0092592592592501E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>1012</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>83</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>1012</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>84</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>1012</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>0.71527777777777701</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>1013</v>
       </c>
-      <c r="C85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
         <v>4.7314578005115002E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>86</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>1013</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>87</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>1013</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>88</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>1013</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>4.47570332480818E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>89</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>1013</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>90</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>1013</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>91</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>1013</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>0.90792838874680304</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>92</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>16</v>
       </c>
-      <c r="C92" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92">
+      <c r="C92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
         <v>1.2594458438287099E-3</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>93</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>16</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>94</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>16</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>8.8161209068010008E-3</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>16</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>0.42632241813602001</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>96</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>16</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>0.15428211586901699</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>97</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>16</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>98</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>16</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>0.40931989924433199</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>99</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>1018</v>
       </c>
-      <c r="C99" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99">
+      <c r="C99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>100</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>1018</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>101</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>1018</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>102</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>1018</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>0.80622837370242195</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>103</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>1018</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>3.4602076124567401E-3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>104</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>1018</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>105</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>1018</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>0.190311418685121</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>106</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>1021</v>
       </c>
-      <c r="C106" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106">
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
         <v>8.98716119828816E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>107</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>1021</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>1.4265335235377999E-3</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>108</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>1021</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>2.8530670470755999E-3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>109</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>1021</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>2.1398002853066998E-2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>110</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>1021</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>0.44650499286733197</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>111</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>1021</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>1.1412268188302399E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>112</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>1021</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>0.42653352353780299</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>113</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>1022</v>
       </c>
-      <c r="C113" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113">
+      <c r="C113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
         <v>2.8358208955223799E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>114</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>1022</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>115</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>1022</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>116</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>1022</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>5.9701492537313399E-3</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>117</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>1022</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>118</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>1022</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>119</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>1022</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>0.96567164179104403</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>120</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>1023</v>
       </c>
-      <c r="C120" t="s">
-        <v>0</v>
-      </c>
-      <c r="D120">
+      <c r="C120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
         <v>8.4865629420084795E-3</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>121</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>1023</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>122</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>1023</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>123</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>1023</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>124</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>1023</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>7.07213578500707E-3</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>125</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>1023</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>126</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>1023</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>0.98444130127298402</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>127</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>1015</v>
       </c>
-      <c r="C127" t="s">
-        <v>0</v>
-      </c>
-      <c r="D127">
+      <c r="C127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
         <v>0.12436548223350199</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>128</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>1015</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>129</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>1015</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>130</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>1015</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>0.27157360406091302</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>131</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>1015</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <v>4.8223350253807098E-2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>132</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>1015</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>133</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>1015</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <v>0.55583756345177604</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>134</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>1019</v>
       </c>
-      <c r="C134" t="s">
-        <v>0</v>
-      </c>
-      <c r="D134">
+      <c r="C134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>135</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>1019</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>136</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>1019</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>137</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>1019</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>3.66300366300366E-3</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>138</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
         <v>1019</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <v>9.3406593406593394E-2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>139</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1">
         <v>1019</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>140</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>1019</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
         <v>0.90293040293040205</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>141</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>1014</v>
       </c>
-      <c r="C141" t="s">
-        <v>0</v>
-      </c>
-      <c r="D141">
+      <c r="C141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1">
         <v>6.9802731411229099E-2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>142</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>1014</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>143</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>1014</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <v>1.36570561456752E-2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>144</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>1014</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="1">
         <v>5.4628224582701002E-2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>145</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>1014</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
         <v>0.25796661608497701</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>146</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>1014</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>147</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>1014</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <v>0.60394537177541696</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>148</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>1002</v>
       </c>
-      <c r="C148" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148">
+      <c r="C148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1">
         <v>0.20186335403726699</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>149</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
         <v>1002</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" s="1">
         <v>150</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
         <v>1002</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>6.5217391304347797E-2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="A151" s="1">
         <v>151</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1">
         <v>1002</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <v>0.31055900621117999</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="A152" s="1">
         <v>152</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1">
         <v>1002</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <v>1.8633540372670801E-2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" s="1">
         <v>153</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="1">
         <v>1002</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>3.1055900621118002E-3</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="A154" s="1">
         <v>154</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
         <v>1002</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <v>0.40062111801242201</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="A155" s="1">
         <v>155</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>1017</v>
       </c>
-      <c r="C155" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155">
+      <c r="C155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1">
         <v>2.1276595744680799E-2</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="A156" s="1">
         <v>156</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>1017</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>157</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>1017</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="1">
         <v>1.91489361702127E-2</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="A158" s="1">
         <v>158</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
         <v>1017</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="1">
         <v>0.3</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="A159" s="1">
         <v>159</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
         <v>1017</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="1">
         <v>0.170212765957446</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="A160" s="1">
         <v>160</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>1017</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>161</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>1017</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="1">
         <v>0.489361702127659</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>162</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>1025</v>
       </c>
-      <c r="C162" t="s">
-        <v>0</v>
-      </c>
-      <c r="D162">
+      <c r="C162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1">
         <v>9.9206349206349201E-3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>163</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>1025</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>164</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>1025</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="1">
         <v>2.3809523809523801E-2</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>165</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>1025</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="1">
         <v>1.38888888888888E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>166</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <v>1025</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="1">
         <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>167</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>1025</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>168</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>1025</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="1">
         <v>0.33333333333333298</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>169</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>1026</v>
       </c>
-      <c r="C169" t="s">
-        <v>0</v>
-      </c>
-      <c r="D169">
+      <c r="C169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" s="1">
         <v>2.3923444976076502E-3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>170</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>1026</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>171</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>1026</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <v>1.43540669856459E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>172</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
         <v>1026</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>9.5693779904306199E-3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>173</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1">
         <v>1026</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>0.63397129186602796</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>174</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="1">
         <v>1026</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>175</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
         <v>1026</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>0.33971291866028702</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>176</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1">
         <v>1024</v>
       </c>
-      <c r="C176" t="s">
-        <v>0</v>
-      </c>
-      <c r="D176">
+      <c r="C176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>177</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>1024</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>178</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1">
         <v>1024</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="1">
         <v>2.4154589371980601E-3</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>179</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1">
         <v>1024</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="1">
         <v>2.4154589371980601E-3</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="A180" s="1">
         <v>180</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="1">
         <v>1024</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="1">
         <v>4.8309178743961298E-3</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>181</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1">
         <v>1024</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182">
+      <c r="A182" s="1">
         <v>182</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="1">
         <v>1024</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <v>0.99033816425120702</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="A183" s="1">
         <v>183</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="1">
         <v>1027</v>
       </c>
-      <c r="C183" t="s">
-        <v>0</v>
-      </c>
-      <c r="D183">
+      <c r="C183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1">
         <v>1.8691588785046699E-3</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="A184" s="1">
         <v>184</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="1">
         <v>1027</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="A185" s="1">
         <v>185</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="1">
         <v>1027</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186">
+      <c r="A186" s="1">
         <v>186</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="1">
         <v>1027</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="1">
         <v>0.31028037383177498</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187">
+      <c r="A187" s="1">
         <v>187</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="1">
         <v>1027</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188">
+      <c r="A188" s="1">
         <v>188</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1">
         <v>1027</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189">
+      <c r="A189" s="1">
         <v>189</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="1">
         <v>1027</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="1">
         <v>0.68785046728971899</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190">
+      <c r="A190" s="1">
         <v>190</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1">
         <v>1020</v>
       </c>
-      <c r="C190" t="s">
-        <v>0</v>
-      </c>
-      <c r="D190">
+      <c r="C190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191">
+      <c r="A191" s="1">
         <v>191</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="1">
         <v>1020</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192">
+      <c r="A192" s="1">
         <v>192</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="1">
         <v>1020</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193">
+      <c r="A193" s="1">
         <v>193</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="1">
         <v>1020</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="1">
         <v>0.61661341853035101</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194">
+      <c r="A194" s="1">
         <v>194</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="1">
         <v>1020</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195">
+      <c r="A195" s="1">
         <v>195</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="1">
         <v>1020</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196">
+      <c r="A196" s="1">
         <v>196</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="1">
         <v>1020</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="1">
         <v>0.38338658146964799</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197">
+      <c r="A197" s="1">
         <v>197</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="1">
         <v>1028</v>
       </c>
-      <c r="C197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D197">
+      <c r="C197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198">
+      <c r="A198" s="1">
         <v>198</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="1">
         <v>1028</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199">
+      <c r="A199" s="1">
         <v>199</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="1">
         <v>1028</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200">
+      <c r="A200" s="1">
         <v>200</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="1">
         <v>1028</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="1">
         <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201">
+      <c r="A201" s="1">
         <v>201</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="1">
         <v>1028</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202">
+      <c r="A202" s="1">
         <v>202</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="1">
         <v>1028</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203">
+      <c r="A203" s="1">
         <v>203</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="1">
         <v>1028</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="1">
         <v>0.36</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204">
+      <c r="A204" s="1">
         <v>204</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="1">
         <v>1030</v>
       </c>
-      <c r="C204" t="s">
-        <v>0</v>
-      </c>
-      <c r="D204">
+      <c r="C204" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" s="1">
         <v>2.0618556701030898E-3</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205">
+      <c r="A205" s="1">
         <v>205</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="1">
         <v>1030</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206">
+      <c r="A206" s="1">
         <v>206</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="1">
         <v>1030</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207">
+      <c r="A207" s="1">
         <v>207</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="1">
         <v>1030</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="1">
         <v>0.70309278350515403</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208">
+      <c r="A208" s="1">
         <v>208</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="1">
         <v>1030</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="1">
         <v>0.138144329896907</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209">
+      <c r="A209" s="1">
         <v>209</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="1">
         <v>1030</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210">
+      <c r="A210" s="1">
         <v>210</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="1">
         <v>1030</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="1">
         <v>0.15670103092783499</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211">
+      <c r="A211" s="1">
         <v>211</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="1">
         <v>1031</v>
       </c>
-      <c r="C211" t="s">
-        <v>0</v>
-      </c>
-      <c r="D211">
+      <c r="C211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211" s="1">
         <v>1.85528756957328E-3</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212">
+      <c r="A212" s="1">
         <v>212</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="1">
         <v>1031</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213">
+      <c r="A213" s="1">
         <v>213</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="1">
         <v>1031</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214">
+      <c r="A214" s="1">
         <v>214</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="1">
         <v>1031</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215">
+      <c r="A215" s="1">
         <v>215</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="1">
         <v>1031</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="1">
         <v>4.6382189239332003E-2</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216">
+      <c r="A216" s="1">
         <v>216</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="1">
         <v>1031</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217">
+      <c r="A217" s="1">
         <v>217</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="1">
         <v>1031</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="1">
         <v>0.951762523191094</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+      <c r="A218" s="1">
+        <v>218</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>219</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>220</v>
+      </c>
+      <c r="B220" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>221</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>222</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" s="1">
+        <v>5.8548009367681503E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>223</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>224</v>
+      </c>
+      <c r="B224" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" s="1">
+        <v>0.99414519906323096</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>225</v>
+      </c>
+      <c r="B225" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225" s="1">
+        <v>6.5543071161048599E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>226</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>227</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>228</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>229</v>
+      </c>
+      <c r="B229" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" s="1">
+        <v>0.66853932584269604</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>230</v>
+      </c>
+      <c r="B230" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>231</v>
+      </c>
+      <c r="B231" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="1">
+        <v>0.265917602996254</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>232</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232" s="1">
+        <v>0.17055393586005799</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>233</v>
+      </c>
+      <c r="B233" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>234</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>235</v>
+      </c>
+      <c r="B235" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>236</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" s="1">
+        <v>0.21574344023323599</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>237</v>
+      </c>
+      <c r="B237" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>238</v>
+      </c>
+      <c r="B238" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" s="1">
+        <v>0.61370262390670505</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>239</v>
+      </c>
+      <c r="B239" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>240</v>
+      </c>
+      <c r="B240" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>241</v>
+      </c>
+      <c r="B241" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>242</v>
+      </c>
+      <c r="B242" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1.4662756598240401E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>243</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D243" s="1">
+        <v>4.9853372434017502E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>244</v>
+      </c>
+      <c r="B244" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>245</v>
+      </c>
+      <c r="B245" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" s="1">
+        <v>0.93548387096774099</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>246</v>
+      </c>
+      <c r="B246" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246" s="1">
+        <v>6.8728522336769697E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>247</v>
+      </c>
+      <c r="B247" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>248</v>
+      </c>
+      <c r="B248" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="1">
+        <v>1.37457044673539E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>249</v>
+      </c>
+      <c r="B249" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249" s="1">
+        <v>2.40549828178694E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>250</v>
+      </c>
+      <c r="B250" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" s="1">
+        <v>0.53264604810996496</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>251</v>
+      </c>
+      <c r="B251" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1">
+        <v>4.1237113402061799E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>252</v>
+      </c>
+      <c r="B252" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="1">
+        <v>0.38144329896907198</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B253" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C253" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D253" s="1" t="s">
         <v>7</v>
       </c>
     </row>
